--- a/table/Level.xlsx
+++ b/table/Level.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -57,64 +57,157 @@
     <t>每局问题数量</t>
   </si>
   <si>
+    <t>答题时间</t>
+  </si>
+  <si>
     <t>等级</t>
   </si>
   <si>
     <t>奖励</t>
   </si>
   <si>
+    <t>胜率</t>
+  </si>
+  <si>
+    <t>答题匹配段位题库</t>
+  </si>
+  <si>
     <t>rank</t>
   </si>
   <si>
     <t>questionNumber</t>
   </si>
   <si>
+    <t>questionTime</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
     <t>reward</t>
   </si>
   <si>
+    <t>winRate</t>
+  </si>
+  <si>
+    <t>AnswerPhase</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>arrayint</t>
+  </si>
+  <si>
     <t>布衣</t>
   </si>
   <si>
+    <t>90#100</t>
+  </si>
+  <si>
+    <t>1#2</t>
+  </si>
+  <si>
     <t>童生</t>
   </si>
   <si>
+    <t>85#90</t>
+  </si>
+  <si>
+    <t>2#3</t>
+  </si>
+  <si>
     <t>秀才</t>
   </si>
   <si>
+    <t>80#85</t>
+  </si>
+  <si>
+    <t>3#4</t>
+  </si>
+  <si>
     <t>举人</t>
   </si>
   <si>
+    <t>75#80</t>
+  </si>
+  <si>
+    <t>4#5</t>
+  </si>
+  <si>
     <t>解元</t>
   </si>
   <si>
+    <t>70#75</t>
+  </si>
+  <si>
+    <t>5#6</t>
+  </si>
+  <si>
     <t>贡士</t>
   </si>
   <si>
+    <t>60#70</t>
+  </si>
+  <si>
+    <t>6#7</t>
+  </si>
+  <si>
     <t>会元</t>
   </si>
   <si>
+    <t>50#60</t>
+  </si>
+  <si>
+    <t>7#8</t>
+  </si>
+  <si>
     <t>进士三甲</t>
   </si>
   <si>
+    <t>40#50</t>
+  </si>
+  <si>
+    <t>8#9</t>
+  </si>
+  <si>
     <t>进士二甲</t>
   </si>
   <si>
+    <t>30#40</t>
+  </si>
+  <si>
+    <t>9#10</t>
+  </si>
+  <si>
     <t>探花</t>
   </si>
   <si>
+    <t>20#30</t>
+  </si>
+  <si>
+    <t>10#11</t>
+  </si>
+  <si>
     <t>榜眼</t>
   </si>
   <si>
+    <t>10#20</t>
+  </si>
+  <si>
+    <t>10#11#12</t>
+  </si>
+  <si>
     <t>状元</t>
+  </si>
+  <si>
+    <t>0#10</t>
+  </si>
+  <si>
+    <t>11#12</t>
   </si>
 </sst>
 </file>
@@ -1108,18 +1201,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="16.3362831858407" customWidth="1"/>
+    <col min="7" max="7" width="17.9911504424779" customWidth="1"/>
+    <col min="8" max="8" width="22.0442477876106" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1135,115 +1230,178 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:5">
+    <row r="3" ht="14.25" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:5">
+    <row r="4" ht="14.25" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="14.25" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" s="2">
+        <v>15</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="14.25" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6">
         <v>7</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="14.25" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="14.25" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -1252,126 +1410,198 @@
         <v>13</v>
       </c>
       <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="14.25" spans="1:8">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" s="2">
+        <v>13</v>
+      </c>
+      <c r="E9">
         <v>16</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1</v>
       </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="14.25" spans="1:8">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" s="2">
+        <v>12</v>
+      </c>
+      <c r="E10">
         <v>19</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" ht="14.25" spans="1:8">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
       <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11">
         <v>22</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1</v>
       </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="14.25" spans="1:8">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>7</v>
       </c>
       <c r="D12" s="2">
+        <v>11</v>
+      </c>
+      <c r="E12">
         <v>25</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1</v>
       </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="13" ht="14.25" spans="1:5">
+    <row r="13" ht="14.25" spans="1:8">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>8</v>
       </c>
       <c r="D13" s="2">
+        <v>11</v>
+      </c>
+      <c r="E13">
         <v>28</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" ht="14.25" spans="1:8">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
       <c r="D14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14">
         <v>31</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" ht="14.25" spans="1:8">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C15">
         <v>8</v>
       </c>
       <c r="D15" s="3">
+        <v>10</v>
+      </c>
+      <c r="E15">
         <v>34</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/table/Level.xlsx
+++ b/table/Level.xlsx
@@ -1,20 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="level"/>
+    <sheet name="level" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Dell</author>
+  </authors>
+  <commentList>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dell:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+-1  没有皮肤奖励
+0 随机
+数字 为固定皮肤ID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="122">
   <si>
     <t>ID</t>
   </si>
@@ -106,18 +140,18 @@
     <t>90#100</t>
   </si>
   <si>
+    <t>幼儿园羊小班</t>
+  </si>
+  <si>
+    <t>幼儿园羊</t>
+  </si>
+  <si>
+    <t>Grade7</t>
+  </si>
+  <si>
     <t>1#2</t>
   </si>
   <si>
-    <t>幼儿园羊小班</t>
-  </si>
-  <si>
-    <t>幼儿园羊</t>
-  </si>
-  <si>
-    <t>Grade7</t>
-  </si>
-  <si>
     <t>幼儿园羊中班</t>
   </si>
   <si>
@@ -280,6 +314,9 @@
     <t>博士后羊</t>
   </si>
   <si>
+    <t>2#1</t>
+  </si>
+  <si>
     <t>40#50</t>
   </si>
   <si>
@@ -340,7 +377,7 @@
     <t>10#20</t>
   </si>
   <si>
-    <t>10#11#12</t>
+    <t>11#12</t>
   </si>
   <si>
     <t>副教授羊第二年</t>
@@ -361,10 +398,13 @@
     <t>教授羊</t>
   </si>
   <si>
-    <t>0#10</t>
-  </si>
-  <si>
-    <t>11#12</t>
+    <t>2#2</t>
+  </si>
+  <si>
+    <t>0#20</t>
+  </si>
+  <si>
+    <t>12#13</t>
   </si>
   <si>
     <t>教授羊第二年</t>
@@ -379,30 +419,185 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,18 +606,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFfbe5d6"/>
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -432,130 +819,381 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFdee0e3"/>
+        <color rgb="FFDEE0E3"/>
       </left>
       <right style="medium">
-        <color rgb="FFdee0e3"/>
+        <color rgb="FFDEE0E3"/>
       </right>
       <top style="medium">
-        <color rgb="FFdee0e3"/>
+        <color rgb="FFDEE0E3"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFc6c6c6"/>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
       </left>
-      <right style="thin">
-        <color rgb="FFc6c6c6"/>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
       </right>
-      <top style="thin">
-        <color rgb="FFc6c6c6"/>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFdee0e3"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="medium">
-        <color rgb="FFdee0e3"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="medium">
-        <color rgb="FFdee0e3"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFdee0e3"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="medium">
-        <color rgb="FFdee0e3"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="medium">
-        <color rgb="FFdee0e3"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color rgb="FFdee0e3"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -582,82 +1220,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -669,2076 +1307,2046 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="3" width="14.4778761061947" customWidth="1"/>
+    <col min="4" max="4" width="14.4778761061947" style="2" customWidth="1"/>
+    <col min="5" max="6" width="16.3362831858407" customWidth="1"/>
+    <col min="11" max="12" width="17.9911504424779" customWidth="1"/>
+    <col min="13" max="13" width="22.0442477876106" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="14.25" spans="1:13">
+      <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" ht="14.25" spans="1:13">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>15</v>
       </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>-1</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:13">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:13">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5">
-        <v>15</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>15</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>-1</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3">
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:13">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
+      <c r="C7" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>15</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>-1</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="6">
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>3</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>14</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="1">
         <v>5</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="1">
         <v>2</v>
       </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6">
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
         <v>0</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3">
+    <row r="9" ht="14.25" spans="1:13">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>14</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
         <v>-1</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3">
+    <row r="10" ht="14.25" spans="1:13">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>14</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10">
         <v>7</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
         <v>-1</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3">
+    <row r="11" ht="14.25" spans="1:13">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>3</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>14</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11">
         <v>8</v>
       </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
         <v>-1</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3">
+    <row r="12" ht="14.25" spans="1:13">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12">
         <v>5</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>14</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12">
         <v>9</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="J12" s="3">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
         <v>-1</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3">
+    <row r="13" ht="14.25" spans="1:13">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>3</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>5</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>14</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13">
         <v>10</v>
       </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
         <v>-1</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="6">
+    <row r="14" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="6">
         <v>4</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="1">
         <v>6</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>13</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="1">
         <v>11</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="I14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="1">
         <v>0</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3">
+    <row r="15" ht="14.25" spans="1:13">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>6</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>13</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15">
         <v>12</v>
       </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
         <v>-1</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" t="s">
         <v>56</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3">
+    <row r="16" ht="14.25" spans="1:13">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>4</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>6</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>13</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16">
         <v>13</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16">
         <v>2</v>
       </c>
-      <c r="J16" s="3">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
         <v>-1</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" t="s">
         <v>56</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="6">
+    <row r="17" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="6">
         <v>5</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="1">
         <v>6</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>13</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="1">
         <v>14</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="I17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="1">
         <v>0</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3">
+    <row r="18" ht="14.25" spans="1:13">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>5</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>6</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>13</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18">
         <v>15</v>
       </c>
-      <c r="I18" s="3">
-        <v>1</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
         <v>-1</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" t="s">
         <v>62</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3">
+    <row r="19" ht="14.25" spans="1:13">
+      <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>5</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19">
         <v>6</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>13</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19">
         <v>16</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19">
         <v>2</v>
       </c>
-      <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="3">
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
         <v>-1</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="6">
+    <row r="20" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="6">
         <v>6</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="1">
         <v>6</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>13</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="1">
         <v>17</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="I20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="1">
         <v>0</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="3">
+    <row r="21" ht="14.25" spans="1:13">
+      <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>6</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21">
         <v>6</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>13</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21">
         <v>18</v>
       </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
         <v>-1</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" t="s">
         <v>68</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="3">
+    <row r="22" ht="14.25" spans="1:13">
+      <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>6</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22">
         <v>6</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="4">
         <v>13</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22">
         <v>19</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22">
         <v>2</v>
       </c>
-      <c r="J22" s="3">
-        <v>1</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
         <v>-1</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" t="s">
         <v>68</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="3">
+    <row r="23" ht="14.25" spans="1:13">
+      <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>6</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23">
         <v>6</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <v>13</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23">
         <v>20</v>
       </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
         <v>-1</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="6">
+    <row r="24" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="6">
         <v>7</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="1">
         <v>7</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>12</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="1">
         <v>21</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="I24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="1">
         <v>0</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="3">
+    <row r="25" ht="14.25" spans="1:13">
+      <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>7</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25">
         <v>7</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>12</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25">
         <v>22</v>
       </c>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3">
-        <v>1</v>
-      </c>
-      <c r="K25" s="3">
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
         <v>-1</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" t="s">
         <v>75</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="3">
+    <row r="26" ht="14.25" spans="1:13">
+      <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>7</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26">
         <v>7</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>12</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26">
         <v>23</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26">
         <v>2</v>
       </c>
-      <c r="J26" s="3">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
         <v>-1</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" t="s">
         <v>75</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="6">
+    <row r="27" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="6">
         <v>8</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="1">
         <v>7</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>12</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="1">
         <v>24</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27" s="6">
+      <c r="I27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="1">
         <v>0</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M27" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="3">
+    <row r="28" ht="14.25" spans="1:13">
+      <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>80</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>8</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28">
         <v>7</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <v>12</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28">
         <v>25</v>
       </c>
-      <c r="I28" s="3">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3">
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
         <v>-1</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="3">
+    <row r="29" ht="14.25" spans="1:13">
+      <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>80</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29">
         <v>7</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>12</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29">
         <v>26</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29">
         <v>2</v>
       </c>
-      <c r="J29" s="3">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
         <v>-1</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" t="s">
         <v>81</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="3">
+    <row r="30" ht="14.25" spans="1:13">
+      <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>80</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>8</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30">
         <v>7</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <v>12</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30">
         <v>27</v>
       </c>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3">
-        <v>1</v>
-      </c>
-      <c r="K30" s="3">
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
         <v>-1</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" t="s">
         <v>81</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" t="s">
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="6">
+    <row r="31" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="6">
         <v>9</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="1">
         <v>7</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <v>12</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="1">
         <v>28</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31" s="6">
+      <c r="I31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" s="1">
         <v>0</v>
       </c>
-      <c r="L31" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M31" s="7" t="s">
+      <c r="L31" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="3">
+      <c r="M31" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:13">
+      <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
         <v>87</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>9</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32">
         <v>7</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="4">
         <v>12</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32">
         <v>29</v>
       </c>
-      <c r="I32" s="3">
-        <v>1</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
         <v>-1</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M32" s="2" t="s">
+      <c r="L32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="3">
+      <c r="M32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:13">
+      <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
         <v>87</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>9</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33">
         <v>7</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <v>12</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33">
         <v>30</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33">
         <v>2</v>
       </c>
-      <c r="J33" s="3">
-        <v>1</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
         <v>-1</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M33" s="2" t="s">
+      <c r="L33" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="6">
+      <c r="M33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="C34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="6">
         <v>10</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="1">
         <v>8</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <v>11</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="1">
         <v>31</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K34" s="6">
+      <c r="I34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="1">
         <v>0</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:13">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
         <v>94</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="3">
-        <v>32</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>10</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35">
         <v>8</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <v>11</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35">
         <v>32</v>
       </c>
-      <c r="I35" s="3">
-        <v>1</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
         <v>-1</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" t="s">
+        <v>95</v>
+      </c>
+      <c r="M35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:13">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
         <v>94</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="3">
-        <v>33</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>10</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36">
         <v>8</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="4">
         <v>11</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36">
         <v>33</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36">
         <v>2</v>
       </c>
-      <c r="J36" s="3">
-        <v>1</v>
-      </c>
-      <c r="K36" s="3">
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
         <v>-1</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M36" s="2" t="s">
+      <c r="L36" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="6">
+      <c r="M36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="C37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="6">
         <v>11</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="1">
         <v>8</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="7">
         <v>11</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="1">
         <v>34</v>
       </c>
-      <c r="I37" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K37" s="6">
+      <c r="I37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K37" s="1">
         <v>0</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="L37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:13">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
         <v>100</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="3">
-        <v>35</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>11</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38">
         <v>8</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <v>11</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38">
         <v>35</v>
       </c>
-      <c r="I38" s="3">
-        <v>1</v>
-      </c>
-      <c r="J38" s="3">
-        <v>1</v>
-      </c>
-      <c r="K38" s="3">
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
         <v>-1</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" t="s">
+        <v>101</v>
+      </c>
+      <c r="M38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:13">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
         <v>100</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="3">
-        <v>36</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>11</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39">
         <v>8</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="4">
         <v>11</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39">
         <v>36</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39">
         <v>2</v>
       </c>
-      <c r="J39" s="3">
-        <v>1</v>
-      </c>
-      <c r="K39" s="3">
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
         <v>-1</v>
       </c>
-      <c r="L39" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M39" s="2" t="s">
+      <c r="L39" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="6">
+      <c r="M39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="C40" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="3">
+      <c r="D40" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="6">
         <v>12</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="1">
         <v>8</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="7">
         <v>11</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="1">
         <v>37</v>
       </c>
-      <c r="I40" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K40" s="6">
+      <c r="I40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K40" s="1">
         <v>0</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="L40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:13">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="2">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41" s="4">
+        <v>11</v>
+      </c>
+      <c r="H41">
+        <v>38</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>-1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>108</v>
+      </c>
+      <c r="M41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:13">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="2">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="G42" s="4">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>39</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>-1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>108</v>
+      </c>
+      <c r="M42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A43" s="1">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="M40" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="3">
-        <v>38</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="3">
-        <v>12</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="E43" s="6">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1">
         <v>8</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G43" s="7">
         <v>11</v>
       </c>
-      <c r="H41" s="3">
-        <v>38</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="H43" s="1">
+        <v>40</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="2">
+        <v>13</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44" s="4">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>41</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
         <v>-1</v>
       </c>
-      <c r="L41" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="3">
-        <v>39</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E42" s="3">
-        <v>12</v>
-      </c>
-      <c r="F42" s="3">
-        <v>8</v>
-      </c>
-      <c r="G42" s="5">
-        <v>11</v>
-      </c>
-      <c r="H42" s="3">
-        <v>39</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="L44" t="s">
+        <v>117</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="2">
+        <v>13</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45" s="4">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>42</v>
+      </c>
+      <c r="I45">
         <v>2</v>
       </c>
-      <c r="J42" s="3">
-        <v>1</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
         <v>-1</v>
       </c>
-      <c r="L42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="6">
-        <v>40</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="3">
-        <v>13</v>
-      </c>
-      <c r="F43" s="6">
-        <v>8</v>
-      </c>
-      <c r="G43" s="8">
-        <v>11</v>
-      </c>
-      <c r="H43" s="6">
-        <v>40</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K43" s="6">
+      <c r="L45" t="s">
+        <v>117</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="14.25" spans="1:13">
+      <c r="A46" s="1">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1">
+        <v>14</v>
+      </c>
+      <c r="F46" s="1">
+        <v>9</v>
+      </c>
+      <c r="G46" s="8">
+        <v>10</v>
+      </c>
+      <c r="H46" s="1">
+        <v>43</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K46" s="1">
         <v>0</v>
       </c>
-      <c r="L43" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="3">
-        <v>41</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="L46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="3">
-        <v>13</v>
-      </c>
-      <c r="F44" s="3">
-        <v>8</v>
-      </c>
-      <c r="G44" s="5">
-        <v>11</v>
-      </c>
-      <c r="H44" s="3">
-        <v>41</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1</v>
-      </c>
-      <c r="K44" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="3">
-        <v>42</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="M46" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="3">
-        <v>13</v>
-      </c>
-      <c r="F45" s="3">
-        <v>9</v>
-      </c>
-      <c r="G45" s="5">
-        <v>10</v>
-      </c>
-      <c r="H45" s="3">
-        <v>42</v>
-      </c>
-      <c r="I45" s="3">
-        <v>2</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1</v>
-      </c>
-      <c r="K45" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="3">
-        <v>43</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="3">
-        <v>14</v>
-      </c>
-      <c r="F46" s="3">
-        <v>9</v>
-      </c>
-      <c r="G46" s="10">
-        <v>10</v>
-      </c>
-      <c r="H46" s="3">
-        <v>43</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>116</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 E3">
+      <formula1>"int,float,string,arraystring,arrayint,arrayfloat"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>